--- a/Computers.xlsx
+++ b/Computers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maunsell/Desktop/NSCI-20100 Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A991D8-2845-334F-BDEC-17C3B444C75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BDB9B-0C5F-E84E-95AA-B188DCF8F270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24080" yWindow="620" windowWidth="23340" windowHeight="16460" xr2:uid="{89933F19-ABBE-F64E-AF91-9D0429549803}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{89933F19-ABBE-F64E-AF91-9D0429549803}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>MacOS</t>
   </si>
@@ -105,18 +105,9 @@
     <t>BSCD322-LECTURE</t>
   </si>
   <si>
-    <t>BSCD322-4</t>
-  </si>
-  <si>
-    <t>BSCD322-6</t>
-  </si>
-  <si>
     <t>BSCD322-9</t>
   </si>
   <si>
-    <t>BSCD322-10</t>
-  </si>
-  <si>
     <t>BSCD322-2</t>
   </si>
   <si>
@@ -144,33 +135,18 @@
     <t>BSCD322-8</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>12.6.1</t>
   </si>
   <si>
     <t>128.135.155.159</t>
   </si>
   <si>
-    <t>128.135.155.199</t>
-  </si>
-  <si>
-    <t>128.135.155.250</t>
-  </si>
-  <si>
     <t>128.135.155.217</t>
   </si>
   <si>
-    <t>128.135.155.195</t>
-  </si>
-  <si>
     <t>12.6.2</t>
   </si>
   <si>
-    <t>128.135.155.126</t>
-  </si>
-  <si>
     <t>128.135.155.247</t>
   </si>
   <si>
@@ -180,9 +156,6 @@
     <t>128.135.155.148</t>
   </si>
   <si>
-    <t>128.135.155.42</t>
-  </si>
-  <si>
     <t>128.135.155.166</t>
   </si>
   <si>
@@ -190,13 +163,64 @@
   </si>
   <si>
     <t>128.135.155.108</t>
+  </si>
+  <si>
+    <t>128.135.155.229</t>
+  </si>
+  <si>
+    <t>BSCD322-NEW2</t>
+  </si>
+  <si>
+    <t>13.6.3</t>
+  </si>
+  <si>
+    <t>Intel Iris Plus Graphics 640 1536 MB</t>
+  </si>
+  <si>
+    <t>128.135.155.181</t>
+  </si>
+  <si>
+    <t>2023a</t>
+  </si>
+  <si>
+    <t>Purchased</t>
+  </si>
+  <si>
+    <t>128.135.155.189</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>BSCD322-GOOD</t>
+  </si>
+  <si>
+    <t>128.135.155.212</t>
+  </si>
+  <si>
+    <t>12.6.7</t>
+  </si>
+  <si>
+    <t>12.6.3</t>
+  </si>
+  <si>
+    <t>BSCD322-NEW3</t>
+  </si>
+  <si>
+    <t>128.135.155.173</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,6 +230,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -239,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +280,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -556,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3BAE11-93F7-004E-8EB1-ABC22172A172}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,21 +618,21 @@
     <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="21.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -617,19 +655,25 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>2017</v>
@@ -649,51 +693,57 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4">
         <v>2017</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1">
         <v>2017</v>
@@ -713,51 +763,60 @@
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="L4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>2015</v>
@@ -775,51 +834,57 @@
         <v>18</v>
       </c>
       <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12.1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4">
         <v>2017</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1">
         <v>2017</v>
@@ -839,22 +904,22 @@
       <c r="J8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1">
         <v>2017</v>
@@ -874,51 +939,57 @@
       <c r="J9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>12.7</v>
       </c>
       <c r="E11" s="1">
         <v>2017</v>
@@ -938,19 +1009,22 @@
       <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v>2017</v>
@@ -970,19 +1044,22 @@
       <c r="J12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1">
         <v>2017</v>
@@ -1002,16 +1079,22 @@
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>2017</v>
@@ -1030,6 +1113,9 @@
       </c>
       <c r="J14" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Computers.xlsx
+++ b/Computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maunsell/Desktop/NSCI-20100 Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BDB9B-0C5F-E84E-95AA-B188DCF8F270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E63F2F7-A72E-4C4E-B551-2077E84A6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="17500" xr2:uid="{89933F19-ABBE-F64E-AF91-9D0429549803}"/>
+    <workbookView xWindow="26740" yWindow="5900" windowWidth="24460" windowHeight="17500" xr2:uid="{89933F19-ABBE-F64E-AF91-9D0429549803}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>128.135.155.229</t>
   </si>
   <si>
-    <t>BSCD322-NEW2</t>
-  </si>
-  <si>
     <t>13.6.3</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Lecture</t>
   </si>
   <si>
-    <t>BSCD322-GOOD</t>
-  </si>
-  <si>
     <t>128.135.155.212</t>
   </si>
   <si>
@@ -210,10 +204,16 @@
     <t>12.6.3</t>
   </si>
   <si>
-    <t>BSCD322-NEW3</t>
-  </si>
-  <si>
     <t>128.135.155.173</t>
+  </si>
+  <si>
+    <t>BSCD322-6</t>
+  </si>
+  <si>
+    <t>BSCD322-10</t>
+  </si>
+  <si>
+    <t>BSCD322-4</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,10 +656,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -772,13 +772,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="5">
         <v>2017</v>
@@ -793,16 +793,16 @@
         <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="1">
         <v>2020</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -810,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>36</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="J6" s="3"/>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -846,7 +846,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>36</v>
@@ -870,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1">
         <v>2017</v>
@@ -905,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -948,13 +948,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="1">
         <v>2017</v>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1010,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1045,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1080,18 +1080,18 @@
         <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Computers.xlsx
+++ b/Computers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maunsell/Desktop/NSCI-20100 Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B3262-E1AB-634E-AB46-2A5DDEF7CEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053F9278-0471-9F4B-88E7-B5742F67B681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22660" yWindow="10740" windowWidth="25760" windowHeight="17900" xr2:uid="{89933F19-ABBE-F64E-AF91-9D0429549803}"/>
+    <workbookView xWindow="19480" yWindow="9340" windowWidth="25820" windowHeight="17780" xr2:uid="{89933F19-ABBE-F64E-AF91-9D0429549803}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentManualCount="4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,9 +54,6 @@
     <t>16 GB</t>
   </si>
   <si>
-    <t>BSCD322-LECTURE</t>
-  </si>
-  <si>
     <t>BSCD322-9</t>
   </si>
   <si>
@@ -87,85 +84,88 @@
     <t>BSCD322-8</t>
   </si>
   <si>
-    <t>128.135.155.217</t>
-  </si>
-  <si>
-    <t>128.135.155.247</t>
-  </si>
-  <si>
-    <t>128.135.155.69</t>
-  </si>
-  <si>
-    <t>128.135.155.148</t>
-  </si>
-  <si>
-    <t>128.135.155.166</t>
-  </si>
-  <si>
-    <t>128.135.155.65</t>
-  </si>
-  <si>
-    <t>128.135.155.108</t>
+    <t>Lecture</t>
+  </si>
+  <si>
+    <t>BSCD322-6</t>
+  </si>
+  <si>
+    <t>BSCD322-10</t>
+  </si>
+  <si>
+    <t>BSCD322-4</t>
+  </si>
+  <si>
+    <t>128.135.155.156</t>
+  </si>
+  <si>
+    <t>24", 2023</t>
+  </si>
+  <si>
+    <t>Chip</t>
+  </si>
+  <si>
+    <t>Apple M3</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>HXMDY9FCMQ</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>4480x2520</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>2023b</t>
+  </si>
+  <si>
+    <t>Tahoe 26.1</t>
+  </si>
+  <si>
+    <t>128.135.155.251</t>
+  </si>
+  <si>
+    <t>128.135.155.165</t>
+  </si>
+  <si>
+    <t>128.135.155.209</t>
+  </si>
+  <si>
+    <t>128.135.155.63</t>
+  </si>
+  <si>
+    <t>128.135.155.245</t>
+  </si>
+  <si>
+    <t>128.135.155.203</t>
+  </si>
+  <si>
+    <t>128.135.155.174</t>
+  </si>
+  <si>
+    <t>128.135.155.225</t>
+  </si>
+  <si>
+    <t>BSCD322-LECT</t>
+  </si>
+  <si>
+    <t>128.135.155.213</t>
   </si>
   <si>
     <t>128.135.155.229</t>
   </si>
   <si>
-    <t>128.135.155.181</t>
-  </si>
-  <si>
-    <t>128.135.155.189</t>
-  </si>
-  <si>
-    <t>Lecture</t>
-  </si>
-  <si>
-    <t>128.135.155.212</t>
-  </si>
-  <si>
-    <t>128.135.155.173</t>
-  </si>
-  <si>
-    <t>BSCD322-6</t>
-  </si>
-  <si>
-    <t>BSCD322-10</t>
-  </si>
-  <si>
-    <t>BSCD322-4</t>
-  </si>
-  <si>
-    <t>128.135.155.156</t>
-  </si>
-  <si>
-    <t>24", 2023</t>
-  </si>
-  <si>
-    <t>Chip</t>
-  </si>
-  <si>
-    <t>Apple M3</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>HXMDY9FCMQ</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Sonoma 14.4</t>
-  </si>
-  <si>
-    <t>4480x2520</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>2023b</t>
+    <t>128.135.155.46</t>
+  </si>
+  <si>
+    <t>128.135.155.188</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,9 +226,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +545,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,28 +563,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -597,395 +594,386 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>41</v>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>41</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>41</v>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
